--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45FC745-ABE8-4223-80E9-B0F950E339B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA968E22-A61D-42F2-A200-BCB86917A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Estimation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Parameter</t>
   </si>
@@ -216,13 +229,28 @@
   </si>
   <si>
     <t>Paramètre</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>life duration coef ?????????</t>
+  </si>
+  <si>
+    <t>day mm mg-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -252,6 +280,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -275,11 +323,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -291,11 +433,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,10 +684,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -624,7 +793,9 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -834,336 +1005,413 @@
       </c>
       <c r="D24" s="5"/>
     </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="C3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C9" s="11">
         <v>30</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7">
+      <c r="C10" s="11">
         <v>1.2</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7">
+      <c r="C12" s="11">
         <v>54</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="C13" s="14">
         <v>0.15670000000000001</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="10">
         <v>0.12970000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
+      <c r="C14" s="11">
         <v>6.9844999999999997</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C15" s="11">
         <v>33.034399999999998</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="C16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="C17" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7">
-        <v>2.6015999999999999</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="C18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C19" s="11">
         <v>1.6760999999999999</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="7">
+      <c r="C20" s="11">
         <v>0.8</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="7">
+      <c r="C21" s="11">
         <v>0</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="C22" s="7">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F22" s="7">
+        <f>(0.1779+0.173)/2</f>
+        <v>0.17544999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <f>(0.1779+0.173)/2</f>
+        <v>0.17544999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.16109999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="C24" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
+  <mergeCells count="22">
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA968E22-A61D-42F2-A200-BCB86917A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210766C-C903-4463-91A9-7209D4324FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,13 +434,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,12 +457,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -765,7 +765,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -789,11 +789,11 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -801,7 +801,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -813,7 +813,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -825,7 +825,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -837,7 +837,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -909,7 +909,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -957,7 +957,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -981,7 +981,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -993,7 +993,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -1006,13 +1006,13 @@
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H15"/>
     </sheetView>
   </sheetViews>
@@ -1036,17 +1036,17 @@
       <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="10"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="7" t="s">
         <v>58</v>
       </c>
@@ -1067,243 +1067,243 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>30</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>1.2</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>54</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="16">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="10">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>6.9844999999999997</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="13">
         <v>33.034399999999998</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <v>0.01</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="13">
         <v>1.6760999999999999</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>0.8</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>0</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="7">
@@ -1328,7 +1328,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="7"/>
@@ -1339,20 +1339,20 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="13">
         <v>0.1</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="7"/>
@@ -1363,33 +1363,40 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="13">
         <v>0</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="13">
         <v>3000</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C27:H27"/>
@@ -1405,13 +1412,6 @@
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210766C-C903-4463-91A9-7209D4324FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D89FEA-07C7-4048-8496-3CBB537C5AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="13">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D89FEA-07C7-4048-8496-3CBB537C5AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19C4D8-CA44-4F39-885B-DD203EC91D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>Parameter</t>
   </si>
@@ -234,9 +234,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>LDC</t>
   </si>
   <si>
@@ -244,6 +241,18 @@
   </si>
   <si>
     <t>day mm mg-1</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>early</t>
   </si>
 </sst>
 </file>
@@ -448,6 +457,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,12 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +695,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1007,13 +1016,13 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="C25" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1024,28 +1033,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="7" t="s">
         <v>58</v>
@@ -1066,7 +1075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1088,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1091,8 +1100,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1116,11 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1117,8 +1132,11 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -1130,8 +1148,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1143,8 +1164,11 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1156,8 +1180,11 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1169,8 +1196,11 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1182,23 +1212,29 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="18">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
@@ -1210,8 +1246,11 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
@@ -1223,47 +1262,59 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>66</v>
+      <c r="C16" s="13">
+        <v>1</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="13">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>65</v>
+      <c r="C18" s="21">
+        <v>4.5</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
@@ -1275,8 +1326,11 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -1288,8 +1342,11 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
@@ -1301,8 +1358,11 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
@@ -1326,8 +1386,11 @@
       <c r="H22" s="7">
         <v>0.16109999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
@@ -1337,8 +1400,11 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
@@ -1350,19 +1416,27 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="13">
+        <v>100</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
@@ -1374,29 +1448,28 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="13">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
+  <mergeCells count="23">
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C27:H27"/>
@@ -1412,6 +1485,14 @@
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19C4D8-CA44-4F39-885B-DD203EC91D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD1F02D-E52A-423B-86CB-3B6E6F626AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
   <si>
     <t>Parameter</t>
   </si>
@@ -457,12 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,6 +468,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,7 +1036,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H17"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1045,14 +1045,14 @@
       <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1188,8 +1188,8 @@
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>65</v>
+      <c r="C11" s="13">
+        <v>1</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1220,13 +1220,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>4.5</v>
       </c>
       <c r="D18" s="14"/>
@@ -1470,6 +1470,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C27:H27"/>
@@ -1486,13 +1493,6 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD1F02D-E52A-423B-86CB-3B6E6F626AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8FC1B-9DAC-4EF9-A7B8-255009F98836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,6 +259,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -430,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -457,6 +460,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,12 +478,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,7 +1040,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1045,14 +1049,14 @@
       <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1220,13 +1224,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="18">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1302,7 +1306,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="21">
         <v>4.5</v>
       </c>
       <c r="D18" s="14"/>
@@ -1375,11 +1379,11 @@
       <c r="E22" s="7">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="22">
         <f>(0.1779+0.173)/2</f>
         <v>0.17544999999999999</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="22">
         <f>(0.1779+0.173)/2</f>
         <v>0.17544999999999999</v>
       </c>
@@ -1394,14 +1398,16 @@
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="C23" s="13">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -1469,14 +1475,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
+  <mergeCells count="24">
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C27:H27"/>
@@ -1493,6 +1493,13 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8FC1B-9DAC-4EF9-A7B8-255009F98836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC50F8C-2382-4BBB-B6EE-BD88E15E84F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>Parameter</t>
   </si>
@@ -253,6 +253,81 @@
   </si>
   <si>
     <t>early</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>durée de la simulation en jour</t>
+  </si>
+  <si>
+    <t>Proportion du diamètre des sméinale (par rapport à Dmax)</t>
+  </si>
+  <si>
+    <t>Age de commencement d'émission de racine adventive</t>
+  </si>
+  <si>
+    <t>Distance à la base maximale pour les adventive (mm)</t>
+  </si>
+  <si>
+    <t>Proportion du diamètres des adventives (par rapport au diamètres max)</t>
+  </si>
+  <si>
+    <t>Nombre maximale de racines adventives</t>
+  </si>
+  <si>
+    <t>Coefficient de croissance radiale</t>
+  </si>
+  <si>
+    <t>diamètre minimal en dessous duquel pas de croissance</t>
+  </si>
+  <si>
+    <t>Diamètre maximal donné aux racines primaire</t>
+  </si>
+  <si>
+    <t>pente de la relation entre vitesse de croissance et diamètre</t>
+  </si>
+  <si>
+    <t>Type de tropisme (0: plagio; -1: geo-; +1: geo+; 2: exo</t>
+  </si>
+  <si>
+    <t>Coefficient multiplié par le diamètre pour chaque racine</t>
+  </si>
+  <si>
+    <t>Pente de relation durée de croissance vs diamètre^2</t>
+  </si>
+  <si>
+    <t>Age de maturité des méristème (jours)</t>
+  </si>
+  <si>
+    <t>Distance entre primordium</t>
+  </si>
+  <si>
+    <t>Probabilité d'émergence d'une latérale sur un axe de diam Dmax</t>
+  </si>
+  <si>
+    <t>Probabilité d'émergence d'une latérale sur un axe de diam Dmin</t>
+  </si>
+  <si>
+    <t>Proportion des diamètres des filles par rapport à leur mère</t>
+  </si>
+  <si>
+    <t>Coefficient de variation du diamètre des ramifications</t>
+  </si>
+  <si>
+    <t>Masse volumique racinaire</t>
+  </si>
+  <si>
+    <t>Pente de la relation durée de vie vs diamètre et TMD</t>
+  </si>
+  <si>
+    <t>Vitesse d'émission des adventive (Jour-1)</t>
+  </si>
+  <si>
+    <t>Vitesse d'émission de séminale</t>
+  </si>
+  <si>
+    <t>Nombre max de racine primaire</t>
   </si>
 </sst>
 </file>
@@ -260,7 +335,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -451,6 +526,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,6 +542,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,10 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,14 +774,15 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -752,7 +828,9 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -764,7 +842,9 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -776,7 +856,9 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -788,7 +870,9 @@
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -800,7 +884,9 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -812,7 +898,9 @@
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -824,7 +912,9 @@
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -836,7 +926,9 @@
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -848,7 +940,9 @@
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -860,7 +954,9 @@
       <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -872,7 +968,9 @@
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -884,7 +982,9 @@
       <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -896,7 +996,9 @@
       <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -908,7 +1010,9 @@
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -920,7 +1024,9 @@
       <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -932,7 +1038,9 @@
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -944,7 +1052,9 @@
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -956,7 +1066,9 @@
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -968,7 +1080,9 @@
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -980,7 +1094,9 @@
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -992,7 +1108,9 @@
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1004,7 +1122,9 @@
       <c r="C23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1016,7 +1136,9 @@
       <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -1027,6 +1149,9 @@
       </c>
       <c r="C25" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1039,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,14 +1174,14 @@
       <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1083,27 +1208,27 @@
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
       <c r="J5" t="s">
         <v>65</v>
       </c>
@@ -1112,14 +1237,14 @@
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
       <c r="J6" t="s">
         <v>65</v>
       </c>
@@ -1128,14 +1253,14 @@
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
       <c r="J7" t="s">
         <v>72</v>
       </c>
@@ -1144,14 +1269,14 @@
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>10</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="J8" t="s">
         <v>65</v>
       </c>
@@ -1160,14 +1285,14 @@
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>30</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
       <c r="J9" t="s">
         <v>65</v>
       </c>
@@ -1176,14 +1301,14 @@
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="C10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="J10" t="s">
         <v>65</v>
       </c>
@@ -1192,14 +1317,14 @@
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
       <c r="J11" t="s">
         <v>65</v>
       </c>
@@ -1208,14 +1333,14 @@
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <v>45</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
       <c r="J12" t="s">
         <v>70</v>
       </c>
@@ -1224,13 +1349,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="20">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1242,14 +1367,14 @@
       <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="14">
         <v>6.9844999999999997</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="J14" t="s">
         <v>70</v>
       </c>
@@ -1258,14 +1383,14 @@
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="14">
         <v>33.034399999999998</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
       <c r="J15" t="s">
         <v>72</v>
       </c>
@@ -1274,14 +1399,14 @@
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="14">
         <v>1</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
       <c r="J16" t="s">
         <v>69</v>
       </c>
@@ -1290,14 +1415,14 @@
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="14">
         <v>2E-3</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="J17" t="s">
         <v>69</v>
       </c>
@@ -1306,14 +1431,14 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>4.5</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
       <c r="J18" t="s">
         <v>69</v>
       </c>
@@ -1322,14 +1447,14 @@
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="14">
         <v>1.6760999999999999</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="J19" t="s">
         <v>72</v>
       </c>
@@ -1338,14 +1463,14 @@
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="14">
         <v>0.8</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
       <c r="J20" t="s">
         <v>71</v>
       </c>
@@ -1354,14 +1479,14 @@
       <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="14">
         <v>0</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
       <c r="J21" t="s">
         <v>71</v>
       </c>
@@ -1379,11 +1504,11 @@
       <c r="E22" s="7">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="13">
         <f>(0.1779+0.173)/2</f>
         <v>0.17544999999999999</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="13">
         <f>(0.1779+0.173)/2</f>
         <v>0.17544999999999999</v>
       </c>
@@ -1398,14 +1523,14 @@
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="14">
         <v>0.24490000000000001</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="J23" t="s">
         <v>70</v>
       </c>
@@ -1414,14 +1539,14 @@
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="14">
         <v>0.1</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="J24" t="s">
         <v>69</v>
       </c>
@@ -1430,14 +1555,14 @@
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="14">
         <v>100</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="J25" t="s">
         <v>69</v>
       </c>
@@ -1446,14 +1571,14 @@
       <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="14">
         <v>0</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
       <c r="J26" t="s">
         <v>69</v>
       </c>
@@ -1462,35 +1587,28 @@
       <c r="B27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="14">
         <v>1000</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="J27" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C9:H9"/>
@@ -1500,6 +1618,13 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC50F8C-2382-4BBB-B6EE-BD88E15E84F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D505265E-6EE9-4DDE-B2FB-F1BEE814EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,6 +536,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,15 +552,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -775,7 +775,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1174,14 +1174,14 @@
       <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1349,13 +1349,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="22">
         <v>4.5</v>
       </c>
       <c r="D18" s="15"/>
@@ -1601,6 +1601,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C12:H12"/>
@@ -1611,20 +1620,11 @@
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D505265E-6EE9-4DDE-B2FB-F1BEE814EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B9284-331A-4942-B9C3-782C7A081979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>Parameter</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>Nombre max de racine primaire</t>
+  </si>
+  <si>
+    <t>early &amp; end</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -536,6 +542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,12 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,7 +780,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1164,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:H11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,14 +1180,14 @@
       <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1238,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -1246,7 +1252,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -1278,7 +1284,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -1294,7 +1300,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -1326,7 +1332,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -1349,13 +1355,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="19">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1601,15 +1607,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C12:H12"/>
@@ -1625,6 +1622,15 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B9284-331A-4942-B9C3-782C7A081979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD3FC7-B00E-4A82-8E0B-E2F2617336D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,12 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,6 +553,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,7 +781,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1180,14 +1180,14 @@
       <c r="B2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1355,13 +1355,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>4.5</v>
       </c>
       <c r="D18" s="15"/>
@@ -1607,6 +1607,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C12:H12"/>
@@ -1622,15 +1631,6 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD3FC7-B00E-4A82-8E0B-E2F2617336D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89918C1-10C0-4F34-85B8-9D1424A8C575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>SGC</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Estimation</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -542,6 +542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,12 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -933,7 +933,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -961,7 +961,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -975,7 +975,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -989,7 +989,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1087,7 +1087,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1101,7 +1101,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1129,7 +1129,7 @@
         <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1143,21 +1143,21 @@
         <v>55</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="C25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1170,52 +1170,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>56</v>
+      <c r="C4" s="14">
+        <v>40</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -1236,7 +1236,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1284,7 +1284,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -1300,7 +1300,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -1308,7 +1308,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1316,15 +1316,15 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14">
-        <v>1</v>
+      <c r="C11" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1332,7 +1332,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -1348,25 +1348,25 @@
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="19">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -1430,14 +1430,14 @@
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="22">
         <v>4.5</v>
       </c>
       <c r="D18" s="15"/>
@@ -1446,7 +1446,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -1462,7 +1462,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -1478,7 +1478,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>0.16109999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
@@ -1538,7 +1538,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="16"/>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
@@ -1586,12 +1586,12 @@
       <c r="G26" s="15"/>
       <c r="H26" s="16"/>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="14">
         <v>1000</v>
@@ -1602,20 +1602,11 @@
       <c r="G27" s="15"/>
       <c r="H27" s="16"/>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C12:H12"/>
@@ -1631,6 +1622,15 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89918C1-10C0-4F34-85B8-9D1424A8C575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF4D224-5184-4540-B769-0DE78DF0E263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Estimation" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimation_sorghum" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimation_maize" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t>Parameter</t>
   </si>
@@ -252,9 +253,6 @@
     <t>early</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>durée de la simulation en jour</t>
   </si>
   <si>
@@ -334,6 +332,21 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>,,,,,,,,</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -514,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -542,12 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,6 +567,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -849,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -863,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -877,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -891,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -905,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -919,7 +943,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -933,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -947,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -961,7 +985,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -975,7 +999,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -989,7 +1013,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -1003,7 +1027,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -1017,7 +1041,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -1031,7 +1055,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1045,7 +1069,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1059,7 +1083,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1073,7 +1097,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1087,7 +1111,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1101,7 +1125,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1115,7 +1139,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1129,7 +1153,7 @@
         <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1143,7 +1167,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1157,7 +1181,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:H23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1180,14 +1204,14 @@
       <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1214,8 +1238,8 @@
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14">
-        <v>40</v>
+      <c r="C4" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -1244,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="14">
-        <v>0.1</v>
+        <v>8.0869999999999997E-2</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -1252,7 +1276,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -1284,7 +1308,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -1308,7 +1332,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1323,8 +1347,8 @@
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>72</v>
+      <c r="C11" s="14">
+        <v>0.3407</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1355,13 +1379,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1437,7 +1461,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>4.5</v>
       </c>
       <c r="D18" s="15"/>
@@ -1546,7 +1570,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="14">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1607,6 +1631,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C12:H12"/>
@@ -1622,16 +1655,360 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A499BB16-6557-46B2-82EB-8E70AD0E5399}">
+  <dimension ref="B2:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="28">
+        <v>7</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="28">
+        <v>7</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="28">
+        <v>30</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="28">
+        <v>40</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="28">
+        <v>51</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="28">
+        <v>2</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="28">
+        <v>50</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="28">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF4D224-5184-4540-B769-0DE78DF0E263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDF44F0-651C-4DBD-98D9-9416264158A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,13 +340,13 @@
     <t>Maize</t>
   </si>
   <si>
-    <t>,,,,,,,,</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,</t>
-  </si>
-  <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>0,12mm</t>
+  </si>
+  <si>
+    <t>3 mm</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -546,6 +546,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,17 +581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1204,14 +1201,14 @@
       <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1238,27 +1235,27 @@
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
       <c r="J5" t="s">
         <v>64</v>
       </c>
@@ -1267,14 +1264,14 @@
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="18">
         <v>8.0869999999999997E-2</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
       <c r="J6" t="s">
         <v>96</v>
       </c>
@@ -1283,14 +1280,14 @@
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
       <c r="J7" t="s">
         <v>71</v>
       </c>
@@ -1299,14 +1296,14 @@
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="18">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
       <c r="J8" t="s">
         <v>97</v>
       </c>
@@ -1315,14 +1312,14 @@
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="18">
         <v>30</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
       <c r="J9" t="s">
         <v>71</v>
       </c>
@@ -1331,14 +1328,14 @@
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
       <c r="J10" t="s">
         <v>64</v>
       </c>
@@ -1347,14 +1344,14 @@
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="18">
         <v>0.3407</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
       <c r="J11" t="s">
         <v>69</v>
       </c>
@@ -1363,14 +1360,14 @@
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="18">
         <v>45</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
       <c r="J12" t="s">
         <v>69</v>
       </c>
@@ -1379,13 +1376,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="21">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1397,14 +1394,14 @@
       <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="18">
         <v>6.9844999999999997</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
       <c r="J14" t="s">
         <v>69</v>
       </c>
@@ -1413,14 +1410,14 @@
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="18">
         <v>33.034399999999998</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
       <c r="J15" t="s">
         <v>71</v>
       </c>
@@ -1429,14 +1426,14 @@
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
       <c r="J16" t="s">
         <v>68</v>
       </c>
@@ -1445,14 +1442,14 @@
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="18">
         <v>2E-3</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
       <c r="J17" t="s">
         <v>68</v>
       </c>
@@ -1461,14 +1458,14 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="24">
         <v>4.5</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
       <c r="J18" t="s">
         <v>68</v>
       </c>
@@ -1477,14 +1474,14 @@
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="18">
         <v>1.6760999999999999</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
       <c r="J19" t="s">
         <v>71</v>
       </c>
@@ -1493,14 +1490,14 @@
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="18">
         <v>0.8</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
       <c r="J20" t="s">
         <v>70</v>
       </c>
@@ -1509,14 +1506,14 @@
       <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="18">
         <v>0</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
       <c r="J21" t="s">
         <v>70</v>
       </c>
@@ -1553,14 +1550,14 @@
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="18">
         <v>0.24490000000000001</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
       <c r="J23" t="s">
         <v>69</v>
       </c>
@@ -1569,14 +1566,14 @@
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="18">
         <v>0.25</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
       <c r="J24" t="s">
         <v>68</v>
       </c>
@@ -1585,14 +1582,14 @@
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="18">
         <v>100</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="J25" t="s">
         <v>68</v>
       </c>
@@ -1601,14 +1598,14 @@
       <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="18">
         <v>0</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="J26" t="s">
         <v>68</v>
       </c>
@@ -1617,14 +1614,14 @@
       <c r="B27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="18">
         <v>1000</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
       <c r="J27" t="s">
         <v>68</v>
       </c>
@@ -1665,7 +1662,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1674,339 +1671,222 @@
       <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="D2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="7">
         <v>0.5</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="C6" s="7">
+        <v>2.6669999999999999E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="7">
         <v>7</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="7">
         <v>7</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="7">
         <v>30</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="7">
         <v>0.8</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="C11" s="7">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="7">
         <v>40</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="7">
         <v>4.5</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="7">
         <v>51</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="7">
         <v>0.01</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="17">
         <v>4.5</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="7">
         <v>0.8</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="7">
         <v>0.12</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="7">
         <v>0.3</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="7">
         <v>0.08</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="7">
         <v>50</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="7">
         <v>3000</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDF44F0-651C-4DBD-98D9-9416264158A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C349613-1BF4-4380-ACBB-46C3220B801E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="75" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
     <t>0,12mm</t>
   </si>
   <si>
-    <t>3 mm</t>
+    <t>1,7553492 [mm]</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -563,6 +563,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,12 +581,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
@@ -1201,14 +1202,14 @@
       <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1376,13 +1377,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="23">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1458,7 +1459,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="26">
         <v>4.5</v>
       </c>
       <c r="D18" s="19"/>
@@ -1628,15 +1629,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C12:H12"/>
@@ -1652,6 +1644,15 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1661,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A499BB16-6557-46B2-82EB-8E70AD0E5399}">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1752,9 +1753,9 @@
         <v>21</v>
       </c>
       <c r="C11" s="7">
-        <v>0.66659999999999997</v>
-      </c>
-      <c r="D11" t="s">
+        <v>0.3901</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1890,5 +1891,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C349613-1BF4-4380-ACBB-46C3220B801E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20C3DC2-79D8-4C19-95A8-2A99A3BD7712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="75" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,6 +554,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,12 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,7 +576,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1202,14 +1202,14 @@
       <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1236,27 +1236,27 @@
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
       <c r="J5" t="s">
         <v>64</v>
       </c>
@@ -1265,14 +1265,14 @@
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>8.0869999999999997E-2</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="J6" t="s">
         <v>96</v>
       </c>
@@ -1281,14 +1281,14 @@
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="J7" t="s">
         <v>71</v>
       </c>
@@ -1297,14 +1297,14 @@
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="19">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
       <c r="J8" t="s">
         <v>97</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>30</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
       <c r="J9" t="s">
         <v>71</v>
       </c>
@@ -1329,14 +1329,14 @@
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
       <c r="J10" t="s">
         <v>64</v>
       </c>
@@ -1345,14 +1345,14 @@
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="19">
         <v>0.3407</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
       <c r="J11" t="s">
         <v>69</v>
       </c>
@@ -1361,14 +1361,14 @@
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="19">
         <v>45</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
       <c r="J12" t="s">
         <v>69</v>
       </c>
@@ -1377,13 +1377,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1395,14 +1395,14 @@
       <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="19">
         <v>6.9844999999999997</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
       <c r="J14" t="s">
         <v>69</v>
       </c>
@@ -1411,14 +1411,14 @@
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="19">
         <v>33.034399999999998</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
       <c r="J15" t="s">
         <v>71</v>
       </c>
@@ -1427,14 +1427,14 @@
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="19">
         <v>1</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
       <c r="J16" t="s">
         <v>68</v>
       </c>
@@ -1443,14 +1443,14 @@
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>2E-3</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
       <c r="J17" t="s">
         <v>68</v>
       </c>
@@ -1459,14 +1459,14 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>4.5</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
       <c r="J18" t="s">
         <v>68</v>
       </c>
@@ -1475,14 +1475,14 @@
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="19">
         <v>1.6760999999999999</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
       <c r="J19" t="s">
         <v>71</v>
       </c>
@@ -1491,14 +1491,14 @@
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="19">
         <v>0.8</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
       <c r="J20" t="s">
         <v>70</v>
       </c>
@@ -1507,14 +1507,14 @@
       <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>0</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
       <c r="J21" t="s">
         <v>70</v>
       </c>
@@ -1551,14 +1551,14 @@
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="19">
         <v>0.24490000000000001</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
       <c r="J23" t="s">
         <v>69</v>
       </c>
@@ -1567,14 +1567,14 @@
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="19">
         <v>0.25</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
       <c r="J24" t="s">
         <v>68</v>
       </c>
@@ -1583,14 +1583,14 @@
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="19">
         <v>100</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
       <c r="J25" t="s">
         <v>68</v>
       </c>
@@ -1599,14 +1599,14 @@
       <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="19">
         <v>0</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
       <c r="J26" t="s">
         <v>68</v>
       </c>
@@ -1615,20 +1615,29 @@
       <c r="B27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="19">
         <v>1000</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
       <c r="J27" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C12:H12"/>
@@ -1644,15 +1653,6 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1662,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A499BB16-6557-46B2-82EB-8E70AD0E5399}">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1755,7 +1755,7 @@
       <c r="C11" s="7">
         <v>0.3901</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="18" t="s">
         <v>103</v>
       </c>
     </row>

--- a/archisimple_parameters.xlsx
+++ b/archisimple_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20C3DC2-79D8-4C19-95A8-2A99A3BD7712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD51642-DD91-4A1C-B83C-2016E4175DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,6 +564,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,12 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2074AA4-BD4F-4858-912E-832A19D71F91}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:H10"/>
     </sheetView>
   </sheetViews>
@@ -1202,14 +1202,14 @@
       <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
@@ -1377,13 +1377,13 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="24">
         <v>0.15670000000000001</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="8">
         <v>0.12970000000000001</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="27">
         <v>4.5</v>
       </c>
       <c r="D18" s="20"/>
@@ -1629,15 +1629,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C12:H12"/>
@@ -1653,6 +1644,15 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A499BB16-6557-46B2-82EB-8E70AD0E5399}">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
